--- a/outputs/RALEIGH1.xlsx
+++ b/outputs/RALEIGH1.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style, 3. Attitude Towards Risk
-Why: ABI is trying to set up the environment, and gathering more information is a logical subgoal toward achieving this. Given ABI's motivation to accomplish tasks and their comprehensive information processing style, they would likely consider gathering detailed information as an important step. Additionally, ABI's risk-averse nature means they would prefer to gather all necessary information before proceeding with the setup.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page contains various resources and information that can help ABI gather more details about setting up the environment. ABI is motivated to accomplish tasks and prefers to gather comprehensive information before proceeding. The presence of links to deployment processes and other relevant documentation aligns with ABI's need for detailed information.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 6. None of the Above
-Why: Scrolling to find information is a straightforward action that aligns with ABI's information processing style. The page is well-organized, and relevant sections are clearly labeled, making it easy for ABI to understand where to look for more information about setting up the environment. This action does not require technical proficiency or risk, so ABI will likely feel comfortable performing it.</t>
+Facets: 2. Information Processing Style
+Why: Scrolling to find information is a straightforward action that aligns with ABI's comprehensive information processing style. The page is well-organized with clear sections and headings, making it easy for ABI to identify where to find relevant information about setting up the environment.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: While scrolling, ABI will find some general information about FLOSScoach and its usage. However, the page does not provide comprehensive instructions or detailed steps specifically for setting up the environment. ABI needs a clear, step-by-step guide given their preference for process-oriented learning and their comprehensive information processing style. The information on the current page is not sufficient for ABI to feel confident that they are making progress toward setting up the environment. Additionally, due to ABI's low computer self-efficacy, the lack of explicit, detailed instructions may cause uncertainty and hinder their progress.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While scrolling might reveal some relevant information, the page contains a lot of different sections and links, which could be overwhelming for ABI. The information is not specifically focused on setting up the environment, and ABI might not be confident that they have found all the necessary details. ABI's comprehensive information processing style requires clear and specific guidance, which is not fully provided on this page. Additionally, ABI's low computer self-efficacy might make them doubt whether they have gathered all the required information.</t>
         </is>
       </c>
     </row>

--- a/outputs/RALEIGH1.xlsx
+++ b/outputs/RALEIGH1.xlsx
@@ -424,73 +424,52 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Looking at this GitLab repository page for FLOSSCoach, I don't see any immediate information that would help ABI determine if setting up the environment is a clear step toward the use case. The page shows:
-1. A project directory structure
-2. A README section explaining that FLOSSCoach is a community aimed to help newcomers get into Free/Libre Open Source Software
-3. Basic information about technologies used (Ruby on Rails, PostgreSQL, GitLab CI)
-4. Code style guidelines and contribution information
-Given ABI's comprehensive information processing style and tendency to be risk-averse:
-- She would likely feel uncertain since there's no explicit mention of environment setup steps
-- She would want clearer, step-by-step instructions before proceeding
-- The lack of direct environment setup information would make her hesitate about whether this is the right path
-So no, ABI would probably not confidently identify this as a clear step toward achieving the overall use case, as the information presented doesn't provide explicit confirmation or guidance about environment setup being a necessary step in the process.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Learning Style
+Why: This aligns with ABI's characteristics because:
+- Her comprehensive information processing style means she wants to gather complete information before starting
+- Given her low computer self-efficacy, she would want to understand the setup process thoroughly before beginning
+- Her process-oriented learning style means she would naturally look for documentation or instructions first
+- The README.md file shown in the image provides structured information about the project, technologies used, and setup process, which matches ABI's need for comprehensive understanding before taking action
+The page contains clear, organized information about the project's technologies and features, which would help ABI feel more confident about proceeding with the setup process. This matches her need to fully understand what she's getting into before starting, especially given her risk-averse nature with new technologies.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Looking at the GitLab repository page shown in the image, I need to evaluate if there's enough information for ABI to understand environment setup:
-For ABI (who likes gathering information comprehensively before proceeding):
-1. Current Information Available:
-- The repository shows a README.md that contains basic project information
-- There are various folders like config, lib, spec etc.
-- Technologies section mentions Ruby on Rails, PostgreSQL, and GitLab CI
-- There's a code style guide reference
-Problems for ABI:
-1. No clear environment setup instructions visible in the main view
-2. No direct "Getting Started" or "Installation" section immediately visible
-3. Multiple technical folders without clear explanation of their purpose
-Given ABI's characteristics:
-- She likes to gather complete information
-- Prefers step-by-step instructions
-- Wants to understand why she's doing something
-- Risk-averse and wants to be confident before proceeding
-Conclusion:
-No, this page alone is NOT sufficient for ABI to confidently proceed with environment setup. She would likely feel uncertain and uncomfortable because:
-1. Setup instructions aren't immediately visible
-2. No clear sequence of steps is provided
-3. Technical prerequisites aren't explicitly listed
-4. No troubleshooting guidance is shown
-ABI would need to:
-1. Look for a more detailed setup guide
-2. Perhaps check the documentation folder
-3. Search through other markdown files for setup instructions
-Recommendation:
-ABI should look for additional documentation, possibly in the config.ru file or other documentation files, before proceeding with environment setup.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Learning Style
+3. Computer Self-Efficacy
+Why: This aligns with ABI's characteristics because:
+- The page has a clear, organized structure with distinct sections (Features, Technologies, How to use, etc.) which supports ABI's comprehensive information processing style
+- Scrolling is a basic, familiar action that won't trigger ABI's low computer self-efficacy concerns
+- The page presents information in a structured, process-oriented way (with headings and sections) which matches ABI's learning style
+- The content is visible and accessible through simple scrolling, requiring no complex interactions or unfamiliar technical actions that might make ABI hesitate
+The layout of the page makes it clear that more information is available below, and the scrollbar indicates additional content, making it an intuitive action for ABI to scroll and gather more information.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Looking at this GitLab repository page for FLOSSCoach, there isn't immediately visible information about environment setup. While scrolling through the repository files and README.md shows some basic project information like technologies used (Ruby on Rails, PostgreSQL, GitLab CI) and code style guidelines, it doesn't contain explicit environment setup instructions.
-To answer your question: No, Abi would likely not feel confident they're making progress, because:
-1. The information visible doesn't directly address environment setup steps
-2. Abi tends to be risk-averse and likes comprehensive information before proceeding
-3. While there are various documentation files (.md files) visible in the repository, it's not immediately clear which one might contain setup instructions
-4. The README focuses on project overview rather than technical setup details
-For Abi to feel more confident, they would need to:
-- Find specific setup documentation
-- See clear, step-by-step instructions
-- Have confirmation points to verify their progress
-- Know exactly what success looks like
-Recommendation for Abi would be to:
-1. Check the 'docs' folder if present
-2. Look for files like "INSTALL.md", "SETUP.md", or "CONTRIBUTING.md"
-3. Review the wiki section if available
-4. Consider reaching out through the project's community channels mentioned in the README for setup guidance
-The current action of scrolling alone isn't sufficient to gather all the setup information Abi would need to feel confident about proceeding.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Learning Style
+4. None of the Above (Lack of specific setup instructions)
+Why: Despite scrolling through the page, ABI would not feel confident that she's making progress because:
+- While the page provides general information about technologies used (Ruby on Rails, PostgreSQL, GitLab CI), it lacks comprehensive step-by-step setup instructions that ABI's process-oriented learning style requires
+- Given her comprehensive information processing style, ABI would notice that critical setup details are missing (like installation steps, dependencies, configuration requirements)
+- With her low computer self-efficacy, the lack of detailed setup guidance would make her unsure if she's on the right track
+- The page only lists technologies without explaining how to set them up, which doesn't provide the structured process ABI needs to feel confident about proceeding
+The information presented is too high-level and lacks the detailed setup instructions ABI would need to feel confident she's making progress toward her environment setup goal.</t>
         </is>
       </c>
     </row>

--- a/outputs/RALEIGH1.xlsx
+++ b/outputs/RALEIGH1.xlsx
@@ -433,8 +433,8 @@
 - Her comprehensive information processing style means she wants to gather complete information before starting
 - Given her low computer self-efficacy, she would want to understand the setup process thoroughly before beginning
 - Her process-oriented learning style means she would naturally look for documentation or instructions first
-- The README.md file shown in the image provides structured information about the project, technologies used, and setup process, which matches ABI's need for comprehensive understanding before taking action
-The page contains clear, organized information about the project's technologies and features, which would help ABI feel more confident about proceeding with the setup process. This matches her need to fully understand what she's getting into before starting, especially given her risk-averse nature with new technologies.</t>
+- The README.md file shown in the image provides clear, structured information about the project, technologies used, and setup process, which matches ABI's need for comprehensive understanding before taking action
+The page contains relevant information about the technologies used (Ruby on Rails, PostgreSQL, GitLab CI) and has sections like "How to use?" and "Build status" which would help ABI understand what she needs to do. This matches her preference for gathering complete information before proceeding with technical tasks.</t>
         </is>
       </c>
     </row>
@@ -447,11 +447,12 @@
 2. Learning Style
 3. Computer Self-Efficacy
 Why: This aligns with ABI's characteristics because:
-- The page has a clear, organized structure with distinct sections (Features, Technologies, How to use, etc.) which supports ABI's comprehensive information processing style
-- Scrolling is a basic, familiar action that won't trigger ABI's low computer self-efficacy concerns
-- The page presents information in a structured, process-oriented way (with headings and sections) which matches ABI's learning style
-- The content is visible and accessible through simple scrolling, requiring no complex interactions or unfamiliar technical actions that might make ABI hesitate
-The layout of the page makes it clear that more information is available below, and the scrollbar indicates additional content, making it an intuitive action for ABI to scroll and gather more information.</t>
+- The page has a clear, structured layout with distinct sections (How to use?, Technologies, Features, etc.) which supports ABI's comprehensive information processing style
+- Scrolling is a basic, familiar action that ABI would be comfortable with given her computer self-efficacy
+- The page presents information in a process-oriented way (sections are organized logically) which matches ABI's learning style
+- The content is visible and requires simple scrolling to read more, which is a low-risk action that ABI would be comfortable performing
+- The page isn't overwhelmed with technical jargon and presents information in a readable format, making it accessible for someone with ABI's characteristics
+The action of scrolling to find more information is straightforward and the page layout makes it clear that more information exists below, encouraging ABI to scroll down to gather comprehensive information.</t>
         </is>
       </c>
     </row>
@@ -464,12 +465,13 @@
 2. Computer Self-Efficacy
 3. Learning Style
 4. None of the Above (Lack of specific setup instructions)
-Why: Despite scrolling through the page, ABI would not feel confident that she's making progress because:
-- While the page provides general information about technologies used (Ruby on Rails, PostgreSQL, GitLab CI), it lacks comprehensive step-by-step setup instructions that ABI's process-oriented learning style requires
-- Given her comprehensive information processing style, ABI would notice that critical setup details are missing (like installation steps, dependencies, configuration requirements)
-- With her low computer self-efficacy, the lack of detailed setup guidance would make her unsure if she's on the right track
-- The page only lists technologies without explaining how to set them up, which doesn't provide the structured process ABI needs to feel confident about proceeding
-The information presented is too high-level and lacks the detailed setup instructions ABI would need to feel confident she's making progress toward her environment setup goal.</t>
+Why: This doesn't fully align with ABI's needs because:
+- While the page provides general information about technologies used (Ruby on Rails, PostgreSQL, GitLab CI), it lacks specific, step-by-step setup instructions that ABI would need given her process-oriented learning style
+- ABI's comprehensive information processing style means she needs complete information, but the page only provides high-level overview without detailed setup steps
+- Given her low computer self-efficacy, the technical terms without explanation (like GitLab CI) might make her unsure if she's on the right track
+- There's no clear indication of what constitutes a complete environment setup or how to verify if it's done correctly
+- The information presented is too general and doesn't provide the detailed guidance ABI would need to feel confident she's making progress
+While ABI can see what technologies are involved, she won't feel confident she's gathered all the necessary information for setting up the environment since there are no explicit setup instructions or verification steps.</t>
         </is>
       </c>
     </row>
